--- a/Foothold_city/Resources/Data/data_for_matrix.xlsx
+++ b/Foothold_city/Resources/Data/data_for_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\Foothold-city\Foothold_city\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komle\source\PycharmProjects\Foothold-city\Foothold_city\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA02A97-9057-47EB-9616-A2D93620586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43050591-B077-4004-A48E-D4D37EB05CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2328" yWindow="300" windowWidth="20280" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2723" yWindow="893" windowWidth="17281" windowHeight="9982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>Население</t>
   </si>
   <si>
-    <t>Избирательная кампания</t>
-  </si>
-  <si>
     <t>Экономическая</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>Религиозные конфессии</t>
+  </si>
+  <si>
+    <t>Избирательная компания</t>
   </si>
 </sst>
 </file>
@@ -432,15 +432,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.86328125" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -462,89 +464,89 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>3</v>
